--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქ. ბათუმი.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქ. ბათუმი.xlsx
@@ -1,30 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სოციალური სტატისტიკა\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95E3EF-53DD-4733-9F52-004D3666AC6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="10485" yWindow="975" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქ. ბათუმი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+  <si>
+    <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ქ. ბათუმის მუნიციპალიტეტში</t>
+  </si>
+  <si>
+    <t>(სასწავლო წლის დასაწყისისთვის)</t>
+  </si>
+  <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
   <si>
     <t>2017/2018</t>
   </si>
@@ -39,6 +62,45 @@
   </si>
   <si>
     <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>სკოლების რაოდენობა (ერთეული)</t>
+  </si>
+  <si>
+    <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:   გოგო</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               ბიჭი</t>
+  </si>
+  <si>
+    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა 1000 მოსახლეზე;</t>
+  </si>
+  <si>
+    <t>პედაგოგების რიცხოვნობა (კაცი)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    მათ შორის:    ქალი</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               კაცი</t>
+  </si>
+  <si>
+    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
   </si>
   <si>
     <r>
@@ -48,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -57,117 +119,77 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
   </si>
-  <si>
-    <t>2010/2011*</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>─</t>
-  </si>
-  <si>
-    <t>* 2011 წლის 5 აპრილის მდგომარეობით.</t>
-  </si>
-  <si>
-    <t>(სასწავლო წლის დასაწყისისთვის)</t>
-  </si>
-  <si>
-    <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ქ. ბათუმის მუნიციპალიტეტში</t>
-  </si>
-  <si>
-    <t>სკოლების რაოდენობა (ერთეული)</t>
-  </si>
-  <si>
-    <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
-  </si>
-  <si>
-    <t>პედაგოგების რიცხოვნობა (კაცი)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="167" formatCode=".\ #;"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -175,7 +197,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,7 +227,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,10 +235,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -224,7 +246,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -233,62 +255,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -350,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,7 +437,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,161 +612,167 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="15.7109375" style="2" customWidth="1"/>
-    <col min="14" max="18" width="12" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
+    <col min="2" max="14" width="10.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="4" customWidth="1"/>
+    <col min="16" max="18" width="12" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:15" ht="51" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="21" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="12">
+        <v>38</v>
+      </c>
+      <c r="C4" s="13">
+        <v>46</v>
+      </c>
+      <c r="D4" s="14">
+        <v>45</v>
+      </c>
+      <c r="E4" s="13">
+        <v>45</v>
+      </c>
+      <c r="F4" s="13">
+        <v>46</v>
+      </c>
+      <c r="G4" s="14">
+        <v>45</v>
+      </c>
+      <c r="H4" s="14">
+        <v>45</v>
+      </c>
+      <c r="I4" s="14">
+        <v>44</v>
+      </c>
+      <c r="J4" s="14">
+        <v>45</v>
+      </c>
+      <c r="K4" s="14">
+        <v>44</v>
+      </c>
+      <c r="L4" s="14">
+        <v>44</v>
+      </c>
+      <c r="M4" s="14">
+        <v>44</v>
+      </c>
+      <c r="N4" s="14">
+        <v>44</v>
+      </c>
+      <c r="O4" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45</v>
-      </c>
-      <c r="F4" s="4">
-        <v>46</v>
-      </c>
-      <c r="G4" s="17">
-        <v>45</v>
-      </c>
-      <c r="H4" s="17">
-        <v>45</v>
-      </c>
-      <c r="I4" s="17">
-        <v>44</v>
-      </c>
-      <c r="J4" s="17">
-        <v>45</v>
-      </c>
-      <c r="K4" s="17">
-        <v>44</v>
-      </c>
-      <c r="L4" s="17">
-        <v>44</v>
-      </c>
-      <c r="M4" s="17">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="B5" s="16">
         <v>22573</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="17">
         <v>25740</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="18">
         <v>25625</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="17">
         <v>25698</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="17">
         <v>26621</v>
       </c>
       <c r="G5" s="18">
@@ -738,71 +796,364 @@
       <c r="M5" s="18">
         <v>36592</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="N5" s="18">
+        <v>39483</v>
+      </c>
+      <c r="O5" s="27">
+        <v>40835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30.75" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1863</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1502</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1502</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1706</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1706</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1560</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1718</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1840</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1840</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1892</v>
+      </c>
+      <c r="M6" s="18">
+        <v>2350</v>
+      </c>
+      <c r="N6" s="28">
+        <v>2280</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17">
+        <v>981</v>
+      </c>
+      <c r="D7" s="18">
+        <v>796</v>
+      </c>
+      <c r="E7" s="17">
+        <v>864</v>
+      </c>
+      <c r="F7" s="17">
+        <v>855</v>
+      </c>
+      <c r="G7" s="18">
+        <v>872</v>
+      </c>
+      <c r="H7" s="18">
+        <v>787</v>
+      </c>
+      <c r="I7" s="18">
+        <v>894</v>
+      </c>
+      <c r="J7" s="18">
+        <v>932</v>
+      </c>
+      <c r="K7" s="18">
+        <v>981</v>
+      </c>
+      <c r="L7" s="18">
+        <v>926</v>
+      </c>
+      <c r="M7" s="18">
+        <v>1181</v>
+      </c>
+      <c r="N7" s="28">
+        <v>1096</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="17">
+        <v>882</v>
+      </c>
+      <c r="D8" s="18">
+        <v>706</v>
+      </c>
+      <c r="E8" s="17">
+        <v>782</v>
+      </c>
+      <c r="F8" s="17">
+        <v>851</v>
+      </c>
+      <c r="G8" s="18">
+        <v>853</v>
+      </c>
+      <c r="H8" s="18">
+        <v>773</v>
+      </c>
+      <c r="I8" s="18">
+        <v>824</v>
+      </c>
+      <c r="J8" s="18">
+        <v>908</v>
+      </c>
+      <c r="K8" s="18">
+        <v>972</v>
+      </c>
+      <c r="L8" s="18">
+        <v>966</v>
+      </c>
+      <c r="M8" s="18">
+        <v>1169</v>
+      </c>
+      <c r="N8" s="28">
+        <v>1184</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="27" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="22">
+        <v>15.2870945904363</v>
+      </c>
+      <c r="D9" s="23">
+        <v>10.6518401372967</v>
+      </c>
+      <c r="E9" s="22">
+        <v>9.9329427169442006</v>
+      </c>
+      <c r="F9" s="22">
+        <v>11.231812495885199</v>
+      </c>
+      <c r="G9" s="23">
+        <v>11.0992196064526</v>
+      </c>
+      <c r="H9" s="23">
+        <v>9.9557416229773406</v>
+      </c>
+      <c r="I9" s="23">
+        <v>10.7703158059713</v>
+      </c>
+      <c r="J9" s="23">
+        <v>11.349582563586999</v>
+      </c>
+      <c r="K9" s="23">
+        <v>11.1689793738087</v>
+      </c>
+      <c r="L9" s="23">
+        <v>11.2908375330833</v>
+      </c>
+      <c r="M9" s="23">
+        <v>13.776607906014201</v>
+      </c>
+      <c r="N9" s="29">
+        <v>12.9204091462896</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="16">
         <v>2133</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I10" s="16">
         <v>2286</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J10" s="16">
         <v>2355</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K10" s="16">
         <v>2338</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L10" s="16">
         <v>2291</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M10" s="16">
         <v>2382</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="N10" s="16">
+        <v>2441</v>
+      </c>
+      <c r="O10" s="16">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1959</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2100</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2166</v>
+      </c>
+      <c r="K11" s="16">
+        <v>2147</v>
+      </c>
+      <c r="L11" s="16">
+        <v>2100</v>
+      </c>
+      <c r="M11" s="16">
+        <v>2192</v>
+      </c>
+      <c r="N11" s="16">
+        <v>2248</v>
+      </c>
+      <c r="O11" s="16">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1">
+      <c r="A12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="25">
+        <v>174</v>
+      </c>
+      <c r="I12" s="25">
+        <v>186</v>
+      </c>
+      <c r="J12" s="25">
+        <v>189</v>
+      </c>
+      <c r="K12" s="25">
+        <v>191</v>
+      </c>
+      <c r="L12" s="25">
+        <v>191</v>
+      </c>
+      <c r="M12" s="25">
+        <v>190</v>
+      </c>
+      <c r="N12" s="25">
+        <v>193</v>
+      </c>
+      <c r="O12" s="25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქ. ბათუმი.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/აჭარა ა.რ/ქ. ბათუმი.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.139\d$\xampp\htdocs\regions\municipal\განათლება\ზოგადსაგანმანათლებლო დაწესებულებები\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95E3EF-53DD-4733-9F52-004D3666AC6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701AD7B4-C501-43C3-B2CE-5EAE9073C764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="975" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქ. ბათუმი" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ქ. ბათუმის მუნიციპალიტეტში</t>
   </si>
@@ -76,16 +87,19 @@
     <t>მოსწავლეთა რიცხოვნობა (კაცი)</t>
   </si>
   <si>
-    <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t xml:space="preserve"> დაწყებითი საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
   </si>
   <si>
     <t xml:space="preserve">    მათ შორის:   გოგო</t>
   </si>
   <si>
     <t xml:space="preserve">                               ბიჭი</t>
+  </si>
+  <si>
+    <t>საბაზო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>საშუალო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
   </si>
   <si>
     <t>საშუალო სკოლის კურსდამთავრებულთა რიცხოვნობა 1000 მოსახლეზე;</t>
@@ -110,7 +124,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -119,23 +133,25 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode=".\ #;"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,49 +163,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -197,7 +213,24 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -255,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,58 +312,54 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -617,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,19 +722,19 @@
       <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -713,445 +742,733 @@
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="17">
         <v>38</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="18">
         <v>46</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="19">
         <v>45</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="18">
         <v>45</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="18">
         <v>46</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="19">
         <v>45</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="19">
         <v>45</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="19">
         <v>44</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="19">
         <v>45</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="19">
         <v>44</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="19">
         <v>44</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="19">
         <v>44</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="19">
         <v>44</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="19">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="20">
         <v>22573</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="21">
         <v>25740</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="22">
         <v>25625</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="21">
         <v>25698</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="21">
         <v>26621</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="22">
         <v>27239</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="22">
         <v>28612</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="22">
         <v>29843</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="22">
         <v>31497</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="22">
         <v>32962</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="22">
         <v>34651</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="22">
         <v>36592</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="22">
         <v>39483</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="22">
         <v>40835</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:15" ht="29.25" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2157</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1854</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2213</v>
+      </c>
+      <c r="F6" s="20">
+        <v>2156</v>
+      </c>
+      <c r="G6" s="20">
+        <v>2569</v>
+      </c>
+      <c r="H6" s="20">
+        <v>2539</v>
+      </c>
+      <c r="I6" s="20">
+        <v>2352</v>
+      </c>
+      <c r="J6" s="20">
+        <v>2498</v>
+      </c>
+      <c r="K6" s="20">
+        <v>2800</v>
+      </c>
+      <c r="L6" s="20">
+        <v>2786</v>
+      </c>
+      <c r="M6" s="20">
+        <v>3739</v>
+      </c>
+      <c r="N6" s="20">
+        <f>N7+N8</f>
+        <v>3398</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1">
+      <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17">
-        <v>1863</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1502</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1502</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1706</v>
-      </c>
-      <c r="G6" s="18">
-        <v>1706</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1560</v>
-      </c>
-      <c r="I6" s="18">
-        <v>1718</v>
-      </c>
-      <c r="J6" s="18">
+      <c r="B7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="20">
+        <v>994</v>
+      </c>
+      <c r="D7" s="20">
+        <v>892</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1053</v>
+      </c>
+      <c r="F7" s="20">
+        <v>977</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1260</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1200</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1123</v>
+      </c>
+      <c r="J7" s="20">
+        <v>1202</v>
+      </c>
+      <c r="K7" s="20">
+        <v>1323</v>
+      </c>
+      <c r="L7" s="20">
+        <v>1337</v>
+      </c>
+      <c r="M7" s="20">
+        <v>1785</v>
+      </c>
+      <c r="N7" s="20">
+        <v>1622</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="20">
+        <v>1163</v>
+      </c>
+      <c r="D8" s="20">
+        <v>962</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1160</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1179</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1309</v>
+      </c>
+      <c r="H8" s="20">
+        <v>1339</v>
+      </c>
+      <c r="I8" s="20">
+        <v>1229</v>
+      </c>
+      <c r="J8" s="20">
+        <v>1296</v>
+      </c>
+      <c r="K8" s="20">
+        <v>1477</v>
+      </c>
+      <c r="L8" s="20">
+        <v>1449</v>
+      </c>
+      <c r="M8" s="20">
+        <v>1954</v>
+      </c>
+      <c r="N8" s="20">
+        <v>1776</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.5" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2264</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2070</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1971</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2141</v>
+      </c>
+      <c r="G9" s="20">
+        <v>2130</v>
+      </c>
+      <c r="H9" s="20">
+        <v>2168</v>
+      </c>
+      <c r="I9" s="20">
+        <v>2122</v>
+      </c>
+      <c r="J9" s="20">
+        <v>2420</v>
+      </c>
+      <c r="K9" s="20">
+        <v>2526</v>
+      </c>
+      <c r="L9" s="20">
+        <v>2362</v>
+      </c>
+      <c r="M9" s="20">
+        <v>2516</v>
+      </c>
+      <c r="N9" s="20">
+        <f>N10+N11</f>
+        <v>2785</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1076</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1016</v>
+      </c>
+      <c r="E10" s="20">
+        <v>958</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1002</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1042</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1058</v>
+      </c>
+      <c r="I10" s="20">
+        <v>1026</v>
+      </c>
+      <c r="J10" s="20">
+        <v>1171</v>
+      </c>
+      <c r="K10" s="20">
+        <v>1185</v>
+      </c>
+      <c r="L10" s="20">
+        <v>1130</v>
+      </c>
+      <c r="M10" s="20">
+        <v>1228</v>
+      </c>
+      <c r="N10" s="20">
+        <v>1335</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1188</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1054</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1013</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1139</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1088</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1110</v>
+      </c>
+      <c r="I11" s="20">
+        <v>1096</v>
+      </c>
+      <c r="J11" s="20">
+        <v>1249</v>
+      </c>
+      <c r="K11" s="20">
+        <v>1341</v>
+      </c>
+      <c r="L11" s="20">
+        <v>1232</v>
+      </c>
+      <c r="M11" s="20">
+        <v>1288</v>
+      </c>
+      <c r="N11" s="20">
+        <v>1450</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30.75" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="20">
+        <v>996</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1025</v>
+      </c>
+      <c r="E12" s="20">
+        <v>835</v>
+      </c>
+      <c r="F12" s="20">
+        <v>833</v>
+      </c>
+      <c r="G12" s="20">
+        <v>921</v>
+      </c>
+      <c r="H12" s="20">
+        <v>814</v>
+      </c>
+      <c r="I12" s="20">
+        <v>899</v>
+      </c>
+      <c r="J12" s="20">
+        <v>932</v>
+      </c>
+      <c r="K12" s="20">
+        <v>978</v>
+      </c>
+      <c r="L12" s="20">
+        <v>926</v>
+      </c>
+      <c r="M12" s="20">
+        <v>1181</v>
+      </c>
+      <c r="N12" s="20">
+        <v>1096</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="21" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="20">
+        <v>865</v>
+      </c>
+      <c r="D13" s="20">
+        <v>940</v>
+      </c>
+      <c r="E13" s="20">
+        <v>741</v>
+      </c>
+      <c r="F13" s="20">
+        <v>827</v>
+      </c>
+      <c r="G13" s="20">
+        <v>923</v>
+      </c>
+      <c r="H13" s="20">
+        <v>798</v>
+      </c>
+      <c r="I13" s="20">
+        <v>832</v>
+      </c>
+      <c r="J13" s="20">
+        <v>908</v>
+      </c>
+      <c r="K13" s="20">
+        <v>969</v>
+      </c>
+      <c r="L13" s="20">
+        <v>966</v>
+      </c>
+      <c r="M13" s="20">
+        <v>1169</v>
+      </c>
+      <c r="N13" s="20">
+        <v>1184</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="21" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1861</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1965</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1576</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1660</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1844</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1612</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1731</v>
+      </c>
+      <c r="J14" s="20">
         <v>1840</v>
       </c>
-      <c r="K6" s="18">
-        <v>1840</v>
-      </c>
-      <c r="L6" s="18">
+      <c r="K14" s="20">
+        <v>1947</v>
+      </c>
+      <c r="L14" s="20">
         <v>1892</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M14" s="20">
         <v>2350</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N14" s="20">
+        <f>N12+N13</f>
         <v>2280</v>
       </c>
-      <c r="O6" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="17">
-        <v>981</v>
-      </c>
-      <c r="D7" s="18">
-        <v>796</v>
-      </c>
-      <c r="E7" s="17">
-        <v>864</v>
-      </c>
-      <c r="F7" s="17">
-        <v>855</v>
-      </c>
-      <c r="G7" s="18">
-        <v>872</v>
-      </c>
-      <c r="H7" s="18">
-        <v>787</v>
-      </c>
-      <c r="I7" s="18">
-        <v>894</v>
-      </c>
-      <c r="J7" s="18">
-        <v>932</v>
-      </c>
-      <c r="K7" s="18">
-        <v>981</v>
-      </c>
-      <c r="L7" s="18">
-        <v>926</v>
-      </c>
-      <c r="M7" s="18">
-        <v>1181</v>
-      </c>
-      <c r="N7" s="28">
-        <v>1096</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="17">
-        <v>882</v>
-      </c>
-      <c r="D8" s="18">
-        <v>706</v>
-      </c>
-      <c r="E8" s="17">
-        <v>782</v>
-      </c>
-      <c r="F8" s="17">
-        <v>851</v>
-      </c>
-      <c r="G8" s="18">
-        <v>853</v>
-      </c>
-      <c r="H8" s="18">
-        <v>773</v>
-      </c>
-      <c r="I8" s="18">
-        <v>824</v>
-      </c>
-      <c r="J8" s="18">
-        <v>908</v>
-      </c>
-      <c r="K8" s="18">
-        <v>972</v>
-      </c>
-      <c r="L8" s="18">
-        <v>966</v>
-      </c>
-      <c r="M8" s="18">
-        <v>1169</v>
-      </c>
-      <c r="N8" s="28">
-        <v>1184</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="27" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="22">
-        <v>15.2870945904363</v>
-      </c>
-      <c r="D9" s="23">
-        <v>10.6518401372967</v>
-      </c>
-      <c r="E9" s="22">
-        <v>9.9329427169442006</v>
-      </c>
-      <c r="F9" s="22">
-        <v>11.231812495885199</v>
-      </c>
-      <c r="G9" s="23">
-        <v>11.0992196064526</v>
-      </c>
-      <c r="H9" s="23">
-        <v>9.9557416229773406</v>
-      </c>
-      <c r="I9" s="23">
-        <v>10.7703158059713</v>
-      </c>
-      <c r="J9" s="23">
-        <v>11.349582563586999</v>
-      </c>
-      <c r="K9" s="23">
-        <v>11.1689793738087</v>
-      </c>
-      <c r="L9" s="23">
-        <v>11.2908375330833</v>
-      </c>
-      <c r="M9" s="23">
-        <v>13.776607906014201</v>
-      </c>
-      <c r="N9" s="29">
-        <v>12.9204091462896</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="O14" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27" customHeight="1">
+      <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="B15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="24">
+        <v>13.197785949073992</v>
+      </c>
+      <c r="D15" s="24">
+        <v>12.994828521168674</v>
+      </c>
+      <c r="E15" s="24">
+        <v>10.375929949305419</v>
+      </c>
+      <c r="F15" s="24">
+        <v>10.79994404848264</v>
+      </c>
+      <c r="G15" s="24">
+        <v>11.768197149211678</v>
+      </c>
+      <c r="H15" s="24">
+        <v>10.10579108220359</v>
+      </c>
+      <c r="I15" s="24">
+        <v>10.6772431617223</v>
+      </c>
+      <c r="J15" s="24">
+        <v>11.168979373808744</v>
+      </c>
+      <c r="K15" s="24">
+        <v>11.619059554393848</v>
+      </c>
+      <c r="L15" s="24">
+        <v>11.091634960927195</v>
+      </c>
+      <c r="M15" s="24">
+        <v>13.591357053625133</v>
+      </c>
+      <c r="N15" s="24">
+        <v>12.920409146289632</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="21" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="20">
         <v>2133</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I16" s="20">
         <v>2286</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J16" s="20">
         <v>2355</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K16" s="20">
         <v>2338</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L16" s="20">
         <v>2291</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M16" s="20">
         <v>2382</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N16" s="20">
         <v>2441</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O16" s="20">
         <v>2718</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="21" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="16">
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="20">
         <v>1959</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I17" s="20">
         <v>2100</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J17" s="20">
         <v>2166</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K17" s="20">
         <v>2147</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L17" s="20">
         <v>2100</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M17" s="20">
         <v>2192</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N17" s="20">
         <v>2248</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O17" s="20">
         <v>2480</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="21" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="25">
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="23">
         <v>174</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I18" s="23">
         <v>186</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J18" s="23">
         <v>189</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K18" s="23">
         <v>191</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L18" s="23">
         <v>191</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M18" s="23">
         <v>190</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N18" s="23">
         <v>193</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O18" s="23">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A13" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="32" t="s">
+    <row r="19" spans="1:15" ht="17.25" customHeight="1">
+      <c r="A19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
